--- a/InputFiles/CCDI/TC12_CCDI_DataValidation_phs002430.xlsx
+++ b/InputFiles/CCDI/TC12_CCDI_DataValidation_phs002430.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\qa-data-validation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0537C9-59C9-4463-A5D8-A85E9EF18B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3388CD-9F29-46D8-96AB-3A20F123E357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -106,6 +106,71 @@
     <t>ExDataExcel</t>
   </si>
   <si>
+    <t xml:space="preserve">MATCH (s:study)&lt;--(p:participant)
+WHERE p.participant_id IN ['InptVlue']
+WITH DISTINCT p, s
+RETURN
+coalesce(p.participant_id, '') AS `Participant ID`,
+coalesce(s.phs_accession, '') AS `Study ID`,
+coalesce(p.sex_at_birth, '') AS `Sex` ,
+coalesce(p.race, '') AS `Race`,
+coalesce(p.ethnicity, '') AS `Ethnicity` ,
+coalesce(p.alternate_participant_id, '') AS `Alternate ID`
+Order by p.participant_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Match (s:study)&lt;--(p:participant)&lt;--(d:diagnosis)
+where p.participant_id IN ['InptVlue']
+OPTIONAL MATCH(fo:follow_up)--&gt;(p)
+with distinct d, p, s, fo
+return
+coalesce(p.participant_id, '') as `Participant ID`,
+coalesce(s.phs_accession, '') as `Study ID`,
+coalesce(d.diagnosis_classification, '') as `Diagnosis`,
+coalesce(d.diagnosis_classification_system, '') as `Diagnosis Classification System`,
+coalesce(d.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
+coalesce(d.diagnosis_basis, '') as `Diagnosis Basis`,
+coalesce(d.diagnosis_comment, '') as `Diagnosis Comment`,
+coalesce(d.disease_phase, '') as `Disease Phase`,
+coalesce(d.anatomic_site, '') as `Anatomic Site`,
+coalesce(d.age_at_diagnosis, '') as `Age at diagnosis (days)`,
+coalesce(fo.vital_status, '') as `Vital Status`
+Order by p.participant_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALL {
+  MATCH (st:study)&lt;-[:of_participant|of_cell_line|of_pdx]-(pcp)&lt;-[:of_sample]-(sm:sample)
+  WHERE (pcp:participant or pcp:cell_line or pcp:pdx) and pcp.participant_id IN ['InptVlue']
+  return st, case labels(pcp)[0] when "participant" then pcp.participant_id else "" end as participant_id, sm
+  union all
+  MATCH (st:study)&lt;-[:of_participant]-(p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;--(cp)&lt;--(sm2:sample)
+  WHERE (cp:cell_line or cp:pdx) and p.participant_id IN ['InptVlue']
+  with st, p.participant_id as participant_id, [sm1,sm2] as sampleArr
+  unwind sampleArr as sm
+  return st, participant_id, sm
+}
+RETURN DISTINCT
+          sm.sample_id as `Sample ID`,
+          participant_id as `Participant ID`,
+          st.study_id as `Study ID`,
+          sm.anatomic_site as `Anatomic Site`,
+          sm.participant_age_at_collection as `Age at Sample Collection`,
+          coalesce(sm.diagnosis_classification, '') as `Diagnosis`,
+          coalesce(sm.diagnosis_classification_system, '') as `Diagnosis Classification System`,
+          coalesce(sm.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
+          coalesce(sm.diagnosis_basis, '') as `Diagnosis Basis`,
+          coalesce(sm.diagnosis_comment, '') as `Diagnosis Comment`,
+          sm.sample_tumor_status as `Sample Tumor Status`,
+          sm.tumor_classification as `Sample Tumor Classification`
+Order by sm.sample_id </t>
+  </si>
+  <si>
+    <t>TC12_CCDI_DataValidation_phs002430-InptVlue_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC12_CCDI_DataValidation_phs002430-InptVlue_ExData.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">CALL {
 MATCH (file:clinical_measure_file)
         MATCH (p:participant)-[:of_clinical_measure_file]-(file)
@@ -129,32 +194,6 @@
         CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
         st.study_id AS study_id,
         p.participant_id as participant_id,
-        "" AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:clinical_measure_file)
-        MATCH (st:study)&lt;-[:of_clinical_measure_file]-(file)
-        MATCH (st)&lt;-[:of_participant]-(p:participant)
-        Where p.participant_id IN ['InptVlue']
-        with file, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Clinical data' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        "" as participant_id,
         "" AS sample_id,
         file.dcf_indexd_guid AS guid,
         file.md5sum AS md5sum
@@ -319,39 +358,6 @@
                     ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
         file.dcf_indexd_guid AS guid,
         file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file)
-        WHERE (file:sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
-        MATCH (st:study)&lt;-[:of_cell_line|of_pdx]-(cl)&lt;--(sm:sample)
-        MATCH (st)&lt;-[:of_participant]-(p:participant)
-        Where (cl: cell_line or cl: pdx) and p.participant_id IN ['InptVlue']
-        MATCH (sm)&lt;--(file)
-        with file, sm, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, st, sm,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, st, sm, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        CASE LABELS(file)[0]
-                WHEN 'sequencing_file' THEN 'Sequencing'
-                WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
-                WHEN 'cytogenomic_file' THEN 'Cytogenomic'
-                WHEN 'pathology_file' THEN 'Pathology imaging'
-                WHEN 'methylation_array_file' THEN 'Methylation array' END AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        "" as participant_id,
-        sm.sample_id AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
 }
 RETURN file_name AS `File Name`,
 file_description As `File Description`,
@@ -362,71 +368,6 @@
 guid As `GUID`,
 md5sum As `MD5Sum`
 ORDER BY file_name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATCH (s:study)&lt;--(p:participant)
-WHERE p.participant_id IN ['InptVlue']
-WITH DISTINCT p, s
-RETURN
-coalesce(p.participant_id, '') AS `Participant ID`,
-coalesce(s.phs_accession, '') AS `Study ID`,
-coalesce(p.sex_at_birth, '') AS `Sex` ,
-coalesce(p.race, '') AS `Race`,
-coalesce(p.ethnicity, '') AS `Ethnicity` ,
-coalesce(p.alternate_participant_id, '') AS `Alternate ID`
-Order by p.participant_id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Match (s:study)&lt;--(p:participant)&lt;--(d:diagnosis)
-where p.participant_id IN ['InptVlue']
-OPTIONAL MATCH(fo:follow_up)--&gt;(p)
-with distinct d, p, s, fo
-return
-coalesce(p.participant_id, '') as `Participant ID`,
-coalesce(s.phs_accession, '') as `Study ID`,
-coalesce(d.diagnosis_classification, '') as `Diagnosis`,
-coalesce(d.diagnosis_classification_system, '') as `Diagnosis Classification System`,
-coalesce(d.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
-coalesce(d.diagnosis_basis, '') as `Diagnosis Basis`,
-coalesce(d.diagnosis_comment, '') as `Diagnosis Comment`,
-coalesce(d.disease_phase, '') as `Disease Phase`,
-coalesce(d.anatomic_site, '') as `Anatomic Site`,
-coalesce(d.age_at_diagnosis, '') as `Age at diagnosis (days)`,
-coalesce(fo.vital_status, '') as `Vital Status`
-Order by p.participant_id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALL {
-  MATCH (st:study)&lt;-[:of_participant|of_cell_line|of_pdx]-(pcp)&lt;-[:of_sample]-(sm:sample)
-  WHERE (pcp:participant or pcp:cell_line or pcp:pdx) and pcp.participant_id IN ['InptVlue']
-  return st, case labels(pcp)[0] when "participant" then pcp.participant_id else "" end as participant_id, sm
-  union all
-  MATCH (st:study)&lt;-[:of_participant]-(p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;--(cp)&lt;--(sm2:sample)
-  WHERE (cp:cell_line or cp:pdx) and p.participant_id IN ['InptVlue']
-  with st, p.participant_id as participant_id, [sm1,sm2] as sampleArr
-  unwind sampleArr as sm
-  return st, participant_id, sm
-}
-RETURN DISTINCT
-          sm.sample_id as `Sample ID`,
-          participant_id as `Participant ID`,
-          st.study_id as `Study ID`,
-          sm.anatomic_site as `Anatomic Site`,
-          sm.participant_age_at_collection as `Age at Sample Collection`,
-          coalesce(sm.diagnosis_classification, '') as `Diagnosis`,
-          coalesce(sm.diagnosis_classification_system, '') as `Diagnosis Classification System`,
-          coalesce(sm.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
-          coalesce(sm.diagnosis_basis, '') as `Diagnosis Basis`,
-          coalesce(sm.diagnosis_comment, '') as `Diagnosis Comment`,
-          sm.sample_tumor_status as `Sample Tumor Status`,
-          sm.tumor_classification as `Sample Tumor Classification`
-Order by sm.sample_id </t>
-  </si>
-  <si>
-    <t>TC12_CCDI_DataValidation_phs002430-InptVlue_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC12_CCDI_DataValidation_phs002430-InptVlue_ExData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -807,8 +748,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -838,13 +779,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="246.5" x14ac:dyDescent="0.35">
@@ -852,13 +793,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
@@ -869,10 +810,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="362.5" x14ac:dyDescent="0.35">
@@ -880,13 +821,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
@@ -894,13 +835,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
